--- a/data/grab_with_dates.xlsx
+++ b/data/grab_with_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/scott_coffin_waterboards_ca_gov/Documents/Documents/OFFLINE/DATA/R/GitHub/SFBayMPRiskCharacterization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{B04B589B-BCBB-47D8-BD5E-928B95315F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C83C5CF-FB00-4B7E-996E-BF4B5D173E2B}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{B04B589B-BCBB-47D8-BD5E-928B95315F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A740C76-8E52-42F0-A7FB-904EE8703A9D}"/>
   <bookViews>
     <workbookView xWindow="47971" yWindow="-3055" windowWidth="24267" windowHeight="13148" xr2:uid="{DCDB6436-0A1D-4A44-BD30-5DC10F7EC8D0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="219">
   <si>
     <t>37.9156 </t>
   </si>
@@ -320,12 +320,6 @@
     <t>-122.0570 </t>
   </si>
   <si>
-    <t>Station Code</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>MBNMS30</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
     <t>MBNMS29</t>
   </si>
   <si>
-    <t>Mar 31 (Mar 30 for Manta)</t>
-  </si>
-  <si>
     <t>SB11</t>
   </si>
   <si>
@@ -425,9 +416,6 @@
     <t>CB7 Bay Bridge Nov 16</t>
   </si>
   <si>
-    <t>sampleID</t>
-  </si>
-  <si>
     <t>CB4 Aug 21</t>
   </si>
   <si>
@@ -599,9 +587,6 @@
     <t>1-L grab</t>
   </si>
   <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>specific.location</t>
   </si>
   <si>
@@ -629,15 +614,91 @@
     <t>Max.particle.size.um</t>
   </si>
   <si>
-    <t>latitude</t>
+    <t>sampleID_closestDate</t>
+  </si>
+  <si>
+    <t>Date_string</t>
+  </si>
+  <si>
+    <t>Aug-22</t>
+  </si>
+  <si>
+    <t>Nov-22</t>
+  </si>
+  <si>
+    <t>Jan-22</t>
+  </si>
+  <si>
+    <t>Sep-22</t>
+  </si>
+  <si>
+    <t>Mar-22</t>
+  </si>
+  <si>
+    <t>Aug-21</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mar-30</t>
+  </si>
+  <si>
+    <t>Mar-19</t>
+  </si>
+  <si>
+    <t>Aug-23</t>
+  </si>
+  <si>
+    <t>Nov-16</t>
+  </si>
+  <si>
+    <t>latitude_grab</t>
+  </si>
+  <si>
+    <t>longitude_grab</t>
+  </si>
+  <si>
+    <t>Jan-11</t>
+  </si>
+  <si>
+    <t>needs_fixing</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Sept-12</t>
+  </si>
+  <si>
+    <t>Sept-11</t>
+  </si>
+  <si>
+    <t>Sept-13</t>
+  </si>
+  <si>
+    <t>Aug-21 2017</t>
+  </si>
+  <si>
+    <t>Station.Code</t>
+  </si>
+  <si>
+    <t>match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -746,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -766,17 +827,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -842,7 +906,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -891,6 +954,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1281,27 +1394,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE190201-600E-4056-8049-645418A8CF6F}" name="Table1" displayName="Table1" ref="A1:R50" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:R50" xr:uid="{15384E03-F980-462F-8FCA-1774DE719D6A}"/>
-  <tableColumns count="18">
-    <tableColumn id="16" xr3:uid="{57E2852D-EB4B-4A37-A829-CF7172FA674B}" name="sampleID" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE190201-600E-4056-8049-645418A8CF6F}" name="Table1" displayName="Table1" ref="A1:T50" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A1:T50" xr:uid="{15384E03-F980-462F-8FCA-1774DE719D6A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T50">
+    <sortCondition ref="G1:G50"/>
+  </sortState>
+  <tableColumns count="20">
+    <tableColumn id="16" xr3:uid="{57E2852D-EB4B-4A37-A829-CF7172FA674B}" name="sampleID_closestDate" dataDxfId="18"/>
     <tableColumn id="1" xr3:uid="{2263EC01-4167-4BA8-B2B3-784FB772E647}" name="specific.location"/>
-    <tableColumn id="4" xr3:uid="{0BE1BDB7-5F1E-441C-9546-1C83BBB411BA}" name="System" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1DBDBC84-4D6B-4222-BEB2-E08DA3D1EC35}" name="general.location" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E999E72C-3B03-4576-BB96-164C6C19B056}" name="latitude" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4338FDF2-3D60-4FD8-B478-4F365E2B26E3}" name="longitude" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{3FFDD6C2-9101-41A0-9F1D-6E3EBC2D989E}" name="particles.L.blank.corrected" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{1C64000D-ECE2-4F84-9310-4B579E3B82D6}" name="particles.fish.blank.corrected" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{3B13F591-5C71-49F6-9317-287C9CDEEDE2}" name="particles.kg.blank.corrected" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{2689D9F0-568B-4F70-9482-6553BDEC21E9}" name="sample.matrix" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{2BEE3192-3E1B-4B54-A027-D10625BA8E8B}" name="sample.matrix.specific" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{6D70A4AB-0C7B-4BE4-9E67-CD9CCBD3F2E6}" name="Sampling.apparatus" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{FDF1D1A5-2D4F-409D-8CC0-11848E166C88}" name="Min.particle.size.um" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{A797210A-50C5-41CE-A4A1-301580A38CAE}" name="Max.particle.size.um" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{51E60834-FED5-4155-B7BA-FBCBD5A2E2A8}" name="Station Code" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E827EDFA-F73C-41D4-9C30-A475EBC1D4D4}" name="Date" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{4B45E421-E9A3-4D92-9988-EC84D75A0F25}" name="particle_count" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{FABB9570-C04F-476A-83F6-DBF507CA7FEC}" name="sample_volume_L" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0BE1BDB7-5F1E-441C-9546-1C83BBB411BA}" name="System" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{1DBDBC84-4D6B-4222-BEB2-E08DA3D1EC35}" name="general.location" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E999E72C-3B03-4576-BB96-164C6C19B056}" name="latitude_grab" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4338FDF2-3D60-4FD8-B478-4F365E2B26E3}" name="longitude_grab" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{3FFDD6C2-9101-41A0-9F1D-6E3EBC2D989E}" name="particles.L.blank.corrected" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{1C64000D-ECE2-4F84-9310-4B579E3B82D6}" name="particles.fish.blank.corrected" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3B13F591-5C71-49F6-9317-287C9CDEEDE2}" name="particles.kg.blank.corrected" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{2689D9F0-568B-4F70-9482-6553BDEC21E9}" name="sample.matrix" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{2BEE3192-3E1B-4B54-A027-D10625BA8E8B}" name="sample.matrix.specific" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{6D70A4AB-0C7B-4BE4-9E67-CD9CCBD3F2E6}" name="Sampling.apparatus" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{FDF1D1A5-2D4F-409D-8CC0-11848E166C88}" name="Min.particle.size.um" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{A797210A-50C5-41CE-A4A1-301580A38CAE}" name="Max.particle.size.um" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{51E60834-FED5-4155-B7BA-FBCBD5A2E2A8}" name="Station.Code" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{A495B33B-56C8-4669-B87A-589CE71981D3}" name="Date_string" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{4B45E421-E9A3-4D92-9988-EC84D75A0F25}" name="particle_count" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{FABB9570-C04F-476A-83F6-DBF507CA7FEC}" name="sample_volume_L" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9EED65E7-2473-4813-BD35-7A12F54F7E7C}" name="match" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{D4709BE9-75E9-4F86-84C5-A9585C2EC27B}" name="needs_fixing" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1604,115 +1722,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B9CFD0-9D69-4A0C-A372-DA75AE6F19EB}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="39.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="39.6640625" style="12" customWidth="1"/>
     <col min="5" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="9" width="24.5546875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1"/>
+    <col min="12" max="14" width="20.109375" customWidth="1"/>
     <col min="15" max="15" width="18.109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.109375" style="8" customWidth="1"/>
     <col min="19" max="19" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>190</v>
+      <c r="B2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7">
-        <v>3.4653465350000001</v>
+        <v>1.9509594882729213</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M2" s="7">
         <v>50</v>
@@ -1721,50 +1846,54 @@
         <v>5000</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="9">
-        <v>44794</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>3.5</v>
+        <v>115</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>1.83</v>
       </c>
       <c r="R2" s="7">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="7">
-        <v>2.734877735</v>
+        <v>2.3251072961373387</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M3" s="7">
         <v>50</v>
@@ -1773,50 +1902,54 @@
         <v>5000</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="9">
-        <v>44881</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>2.8333333330000001</v>
+        <v>116</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>2.1669999999999998</v>
       </c>
       <c r="R3" s="7">
-        <v>1.036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>190</v>
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7">
-        <v>7.4331020810000004</v>
+        <v>3</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -1825,50 +1958,56 @@
         <v>5000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="9">
-        <v>44795</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>7.5</v>
+        <v>119</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>3</v>
       </c>
       <c r="R4" s="7">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7">
-        <v>0.62774638999999999</v>
+        <v>0.65231572113502934</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -1877,36 +2016,40 @@
         <v>5000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="9">
-        <v>44881</v>
-      </c>
-      <c r="Q5" s="7">
+        <v>125</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="16">
         <v>0.66666666699999999</v>
       </c>
       <c r="R5" s="7">
-        <v>1.0620000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>190</v>
+        <v>1.022</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1914,13 +2057,13 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -1929,50 +2072,54 @@
         <v>5000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="9">
-        <v>44795</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1.8333333329999999</v>
+        <v>98</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
       </c>
       <c r="R6" s="7">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>190</v>
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7">
-        <v>4.9844236759999996</v>
+        <v>0.70957446808510649</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -1981,50 +2128,54 @@
         <v>5000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="9">
-        <v>44881</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>5.3333333329999997</v>
+        <v>121</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.66700000000000004</v>
       </c>
       <c r="R7" s="7">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>0.94</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>2.3832221163012393</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -2033,50 +2184,54 @@
         <v>5000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="9">
-        <v>44795</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>2.1666666669999999</v>
+        <v>99</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>2.5</v>
       </c>
       <c r="R8" s="7">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7">
-        <v>1.5827793610000001</v>
+        <v>2.2525987525987525</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -2085,50 +2240,54 @@
         <v>5000</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P9" s="9">
-        <v>44881</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1.6666666670000001</v>
+        <v>100</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>2.1669999999999998</v>
       </c>
       <c r="R9" s="7">
-        <v>1.0529999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>190</v>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7">
-        <v>2.703562341</v>
+        <v>2.2022684310018903</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2137,50 +2296,54 @@
         <v>5000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" s="9">
-        <v>44798</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>2.8333333330000001</v>
+        <v>95</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>2.33</v>
       </c>
       <c r="R10" s="7">
-        <v>1.048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>190</v>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7">
-        <v>2.5510204079999999</v>
+        <v>0.99800399201596801</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -2189,50 +2352,54 @@
         <v>5000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" s="9">
-        <v>44572</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>2.5</v>
+        <v>108</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1</v>
       </c>
       <c r="R11" s="7">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>190</v>
+        <v>1.002</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7">
-        <v>6.5789473679999997</v>
+        <v>1.595744680851064</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -2241,50 +2408,54 @@
         <v>5000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" s="9">
-        <v>44795</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>1.5</v>
       </c>
       <c r="R12" s="7">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.94</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>190</v>
+        <v>167</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7">
-        <v>18.711018710000001</v>
+        <v>4.3383947939262475</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -2293,50 +2464,54 @@
         <v>5000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" s="9">
-        <v>44572</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>18</v>
+        <v>109</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>4</v>
       </c>
       <c r="R13" s="7">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>190</v>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>0.62774638999999999</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -2345,50 +2520,54 @@
         <v>5000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="9">
-        <v>44816</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.66666666699999999</v>
       </c>
       <c r="R14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>190</v>
+        <v>138</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7">
-        <v>1.6404199479999999</v>
+        <v>0.94339622599999995</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M15" s="7">
         <v>50</v>
@@ -2397,50 +2576,54 @@
         <v>5000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P15" s="9">
-        <v>44816</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1.6666666670000001</v>
+        <v>100</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>1</v>
       </c>
       <c r="R15" s="7">
-        <v>1.016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.06</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>190</v>
+        <v>150</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7">
-        <v>8.6715227190000004</v>
+        <v>3.0984996741682971</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -2449,50 +2632,54 @@
         <v>5000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="9">
-        <v>44817</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>8.3333333330000006</v>
+        <v>103</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>3.1666666669999999</v>
       </c>
       <c r="R16" s="7">
-        <v>0.96099999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>190</v>
+        <v>1.022</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -2501,50 +2688,54 @@
         <v>5000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="9">
-        <v>44572</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0.66666666699999999</v>
+        <v>102</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>2.6666666669999999</v>
       </c>
       <c r="R17" s="7">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
@@ -2553,50 +2744,54 @@
         <v>5000</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="9">
-        <v>44650</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>2.8333333330000001</v>
       </c>
       <c r="R18" s="7">
-        <v>1.0489999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>190</v>
+        <v>169</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7">
-        <v>1.8115942030000001</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -2605,50 +2800,54 @@
         <v>5000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="9">
-        <v>44815</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1.6666666670000001</v>
+        <v>111</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>3.3333333330000001</v>
       </c>
       <c r="R19" s="7">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>1.262626263</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2657,50 +2856,54 @@
         <v>5000</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" s="9">
-        <v>44816</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.66666666699999999</v>
+        <v>122</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>1.3333333329999999</v>
       </c>
       <c r="R20" s="7">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.056</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>190</v>
+        <v>151</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7">
-        <v>1.262626263</v>
+        <v>1.279590531</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -2709,50 +2912,54 @@
         <v>5000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21" s="9">
-        <v>44817</v>
-      </c>
-      <c r="Q21" s="7">
+        <v>105</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" s="16">
         <v>1.3333333329999999</v>
       </c>
       <c r="R21" s="7">
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.042</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>190</v>
+        <v>126</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7">
-        <v>3.6647546210000002</v>
+        <v>1.5827793610000001</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2761,50 +2968,54 @@
         <v>5000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P22" s="9">
-        <v>44817</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>3.8333333330000001</v>
+        <v>116</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>1.6666666670000001</v>
       </c>
       <c r="R22" s="7">
-        <v>1.046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>190</v>
+        <v>157</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G23" s="7">
-        <v>1</v>
+        <v>1.6056518950000001</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -2813,50 +3024,54 @@
         <v>5000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P23" s="9">
-        <v>44626</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>3.1666666669999999</v>
+        <v>95</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1.6666666670000001</v>
       </c>
       <c r="R23" s="7">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.038</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>190</v>
+        <v>143</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7">
-        <v>1.279590531</v>
+        <v>1.6404199479999999</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>50</v>
@@ -2865,50 +3080,54 @@
         <v>5000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="9">
-        <v>44626</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>1.3333333329999999</v>
+        <v>120</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>1.6666666670000001</v>
       </c>
       <c r="R24" s="7">
-        <v>1.042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.016</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>190</v>
+        <v>146</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7">
-        <v>7.6190476189999998</v>
+        <v>1.8115942030000001</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -2917,50 +3136,55 @@
         <v>5000</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P25" s="9">
-        <v>44797</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>8</v>
+        <v>98</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>1.6666666670000001</v>
       </c>
       <c r="R25" s="7">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.92</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>190</v>
+        <v>158</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7">
-        <v>2.4122807019999999</v>
+        <f>Table1[[#This Row],[particle_count]]/Table1[[#This Row],[sample_volume_L]]</f>
+        <v>4.269449715370019</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -2969,50 +3193,54 @@
         <v>5000</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P26" s="9">
-        <v>44626</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>1.8333333329999999</v>
+        <v>104</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>4.5</v>
       </c>
       <c r="R26" s="7">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>190</v>
+        <v>1.054</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7">
-        <v>13.573232320000001</v>
+        <v>2.4122807019999999</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>50</v>
@@ -3021,50 +3249,54 @@
         <v>5000</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P27" s="9">
-        <v>44649</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>14.33333333</v>
+        <v>106</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>1.8333333329999999</v>
       </c>
       <c r="R27" s="7">
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>190</v>
+        <v>0.76</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7">
-        <v>0</v>
+        <v>2.5510204079999999</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -3073,50 +3305,56 @@
         <v>5000</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P28" s="9">
-        <v>44650</v>
-      </c>
-      <c r="Q28" s="7">
+        <v>118</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q28" s="16">
         <v>2.5</v>
       </c>
       <c r="R28" s="7">
-        <v>1.0489999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>190</v>
+        <v>0.98</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7">
-        <v>0.94339622599999995</v>
+        <v>2.703562341</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -3125,50 +3363,54 @@
         <v>5000</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>2.8333333330000001</v>
       </c>
       <c r="R29" s="7">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.048</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>190</v>
+        <v>139</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="G30" s="7">
-        <v>35.703149359999998</v>
+        <v>2.734877735</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>50</v>
@@ -3177,50 +3419,54 @@
         <v>5000</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="9">
-        <v>44882</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>38.166666669999998</v>
+        <v>110</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>2.8333333330000001</v>
       </c>
       <c r="R30" s="7">
-        <v>1.069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.036</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G31" s="7">
-        <v>0</v>
+        <v>2.764612954</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -3229,50 +3475,54 @@
         <v>5000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="9">
-        <v>44817</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>2.1666666669999999</v>
+        <v>113</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>2.3333333330000001</v>
       </c>
       <c r="R31" s="7">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>190</v>
+        <v>164</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G32" s="7">
-        <v>0</v>
+        <v>3.3460803060000002</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -3281,50 +3531,54 @@
         <v>5000</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>2.3333333330000001</v>
+        <v>101</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>3.5</v>
       </c>
       <c r="R32" s="7">
-        <v>1.0580000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>190</v>
+        <v>1.046</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>1.6056518950000001</v>
+        <v>3.4653465350000001</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M33" s="7">
         <v>50</v>
@@ -3333,50 +3587,56 @@
         <v>5000</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P33" s="9">
-        <v>44831</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>1.6666666670000001</v>
+        <v>110</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>3.5</v>
       </c>
       <c r="R33" s="7">
-        <v>1.038</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.01</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G34" s="7">
-        <v>2</v>
+        <v>3.5020694049999999</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>50</v>
@@ -3385,50 +3645,54 @@
         <v>5000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P34" s="9">
-        <v>44651</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>4.5</v>
+        <v>104</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>3.6666666669999999</v>
       </c>
       <c r="R34" s="7">
-        <v>1.054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
+        <v>149</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G35" s="7">
-        <v>3.5020694049999999</v>
+        <v>3.6647546210000002</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>50</v>
@@ -3437,50 +3701,54 @@
         <v>5000</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P35" s="9">
-        <v>44831</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>3.6666666669999999</v>
+        <v>123</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>3.8333333330000001</v>
       </c>
       <c r="R35" s="7">
-        <v>1.0469999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.046</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>190</v>
+        <v>174</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G36" s="7">
-        <v>18.765903309999999</v>
+        <v>4.4275774830000003</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -3489,50 +3757,54 @@
         <v>5000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P36" s="9">
-        <v>44651</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>19.666666670000001</v>
+        <v>113</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>4.6666666670000003</v>
       </c>
       <c r="R36" s="7">
-        <v>1.048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>190</v>
+        <v>1.054</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G37" s="7">
-        <v>6.2984496119999998</v>
+        <v>4.9844236759999996</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M37" s="7">
         <v>50</v>
@@ -3541,50 +3813,54 @@
         <v>5000</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P37" s="9">
-        <v>44831</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>6.5</v>
+        <v>115</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>5.3333333329999997</v>
       </c>
       <c r="R37" s="7">
-        <v>1.032</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.07</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>190</v>
+        <v>171</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G38" s="7">
-        <v>0</v>
+        <v>5.0860719870000004</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M38" s="7">
         <v>50</v>
@@ -3593,50 +3869,54 @@
         <v>5000</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P38" s="9">
-        <v>44796</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>4.3333333329999997</v>
       </c>
       <c r="R38" s="7">
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>190</v>
+        <v>172</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G39" s="7">
-        <v>6.1443932410000004</v>
+        <v>5.2430886560000003</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M39" s="7">
         <v>50</v>
@@ -3645,50 +3925,54 @@
         <v>5000</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P39" s="9">
-        <v>44639</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>5.3333333329999997</v>
+        <v>112</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>5.5</v>
       </c>
       <c r="R39" s="7">
-        <v>0.86799999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>190</v>
+        <v>163</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G40" s="7">
-        <v>3.3460803060000002</v>
+        <v>6.1443932410000004</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M40" s="7">
         <v>50</v>
@@ -3697,50 +3981,54 @@
         <v>5000</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P40" s="9">
-        <v>44796</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>3.5</v>
+        <v>108</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>5.3333333329999997</v>
       </c>
       <c r="R40" s="7">
-        <v>1.046</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>190</v>
+        <v>161</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G41" s="7">
-        <v>0</v>
+        <v>6.2984496119999998</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M41" s="7">
         <v>50</v>
@@ -3749,50 +4037,54 @@
         <v>5000</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P41" s="9">
-        <v>44639</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>1.5</v>
+        <v>97</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>6.5</v>
       </c>
       <c r="R41" s="7">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>190</v>
+        <v>1.032</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G42" s="7">
-        <v>1</v>
+        <v>6.5789473679999997</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M42" s="7">
         <v>50</v>
@@ -3801,50 +4093,54 @@
         <v>5000</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P42" s="9">
-        <v>44639</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>2.6666666669999999</v>
+        <v>117</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>6</v>
       </c>
       <c r="R42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>190</v>
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
+        <v>7.4331020810000004</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M43" s="7">
         <v>50</v>
@@ -3853,50 +4149,54 @@
         <v>5000</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P43" s="9">
-        <v>44796</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>7.5</v>
       </c>
       <c r="R43" s="7">
-        <v>0.92200000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>190</v>
+        <v>152</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G44" s="7">
-        <v>9.9313831710000002</v>
+        <v>7.6190476189999998</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M44" s="7">
         <v>50</v>
@@ -3905,50 +4205,54 @@
         <v>5000</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P44" s="9">
-        <v>44639</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>9.1666666669999994</v>
+        <v>106</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>8</v>
       </c>
       <c r="R44" s="7">
-        <v>0.92300000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.05</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>190</v>
+        <v>144</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G45" s="7">
-        <v>1</v>
+        <v>8.6715227190000004</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M45" s="7">
         <v>50</v>
@@ -3957,50 +4261,54 @@
         <v>5000</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P45" s="9">
-        <v>44794</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>3.3333333330000001</v>
+        <v>124</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>8.3333333330000006</v>
       </c>
       <c r="R45" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>190</v>
+        <v>168</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G46" s="7">
-        <v>1</v>
+        <v>9.9313831710000002</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M46" s="7">
         <v>50</v>
@@ -4009,50 +4317,54 @@
         <v>5000</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P46" s="9">
-        <v>44881</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>2.8333333330000001</v>
+        <v>109</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>9.1666666669999994</v>
       </c>
       <c r="R46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>190</v>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T46" s="7"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G47" s="7">
-        <v>5.0860719870000004</v>
+        <v>13.573232320000001</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M47" s="7">
         <v>50</v>
@@ -4061,50 +4373,54 @@
         <v>5000</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P47" s="9">
-        <v>44794</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>4.3333333329999997</v>
+        <v>107</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>14.33333333</v>
       </c>
       <c r="R47" s="7">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="16.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.056</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T47" s="7"/>
+    </row>
+    <row r="48" spans="1:20" ht="16.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>190</v>
+        <v>141</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G48" s="7">
-        <v>5.2430886560000003</v>
+        <v>18.711018710000001</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M48" s="7">
         <v>50</v>
@@ -4113,50 +4429,54 @@
         <v>5000</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P48" s="9">
-        <v>44882</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>5.5</v>
+        <v>117</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>18</v>
       </c>
       <c r="R48" s="7">
-        <v>1.0489999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T48" s="7"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>190</v>
+        <v>160</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G49" s="7">
-        <v>2.764612954</v>
+        <v>18.765903309999999</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M49" s="7">
         <v>50</v>
@@ -4165,50 +4485,54 @@
         <v>5000</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P49" s="9">
-        <v>44794</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>2.3333333330000001</v>
+        <v>97</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>19.666666670000001</v>
       </c>
       <c r="R49" s="7">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.048</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T49" s="7"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7">
-        <v>4.4275774830000003</v>
+        <v>35.703149359999998</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M50" s="7">
         <v>50</v>
@@ -4217,17 +4541,21 @@
         <v>5000</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P50" s="9">
-        <v>44882</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>4.6666666670000003</v>
+        <v>100</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q50" s="16">
+        <v>38.166666669999998</v>
       </c>
       <c r="R50" s="7">
-        <v>1.054</v>
-      </c>
+        <v>1.069</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T50" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:R51">

--- a/data/grab_with_dates.xlsx
+++ b/data/grab_with_dates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/scott_coffin_waterboards_ca_gov/Documents/Documents/OFFLINE/DATA/R/GitHub/SFBayMPRiskCharacterization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{B04B589B-BCBB-47D8-BD5E-928B95315F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A740C76-8E52-42F0-A7FB-904EE8703A9D}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{B04B589B-BCBB-47D8-BD5E-928B95315F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{E280AA42-7972-475A-B13F-1A67C09B8371}"/>
   <bookViews>
     <workbookView xWindow="47971" yWindow="-3055" windowWidth="24267" windowHeight="13148" xr2:uid="{DCDB6436-0A1D-4A44-BD30-5DC10F7EC8D0}"/>
   </bookViews>
   <sheets>
     <sheet name="One-Liter Grab Dates" sheetId="1" r:id="rId1"/>
+    <sheet name="relative_abundances" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="263">
   <si>
     <t>37.9156 </t>
   </si>
@@ -590,9 +591,6 @@
     <t>specific.location</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>System</t>
   </si>
   <si>
@@ -690,6 +688,141 @@
   </si>
   <si>
     <t>match</t>
+  </si>
+  <si>
+    <t>Polymer</t>
+  </si>
+  <si>
+    <t>NMS</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Acrylic, acrylate</t>
+  </si>
+  <si>
+    <t>Anthropogenic (synthetic)</t>
+  </si>
+  <si>
+    <t>Anthropogenic (unknown base)</t>
+  </si>
+  <si>
+    <t>Cellulose acetate</t>
+  </si>
+  <si>
+    <t>Copolymers</t>
+  </si>
+  <si>
+    <t>Dimethylpolysiloxane</t>
+  </si>
+  <si>
+    <t>Natural material (pumice, gelatin foam, starch)</t>
+  </si>
+  <si>
+    <t>No signal, unknown, poor spectra, unmatchable</t>
+  </si>
+  <si>
+    <t>Non-Synthetic Fiber (cotton, silk, wool)</t>
+  </si>
+  <si>
+    <t>Nylon</t>
+  </si>
+  <si>
+    <t>Other anthropogenic (asphalt, rubber, paint, wax)</t>
+  </si>
+  <si>
+    <t>Other plastics</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Polyamide</t>
+  </si>
+  <si>
+    <t>Polycarbonate</t>
+  </si>
+  <si>
+    <t>Polyester</t>
+  </si>
+  <si>
+    <t>Polyvinyl alcohol</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>PTFE</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>SEBS</t>
+  </si>
+  <si>
+    <t>WWTP</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Sediment</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Sample.Type</t>
+  </si>
+  <si>
+    <t>NorthBay</t>
+  </si>
+  <si>
+    <t>CentralBay</t>
+  </si>
+  <si>
+    <t>SouthBay</t>
+  </si>
+  <si>
+    <t>LowerSouthBay</t>
+  </si>
+  <si>
+    <t>TomalesBay</t>
+  </si>
+  <si>
+    <t>Central Bay</t>
+  </si>
+  <si>
+    <t>National Marine Sancturay</t>
+  </si>
+  <si>
+    <t>Lower South Bay</t>
+  </si>
+  <si>
+    <t>South Bay</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>SUB</t>
   </si>
 </sst>
 </file>
@@ -700,7 +833,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +874,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -750,7 +896,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -803,11 +949,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -836,11 +1035,47 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -858,6 +1093,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -877,17 +1122,310 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1004,6 +1542,54 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1301,31 +1887,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1394,32 +1955,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE190201-600E-4056-8049-645418A8CF6F}" name="Table1" displayName="Table1" ref="A1:T50" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE190201-600E-4056-8049-645418A8CF6F}" name="Table1" displayName="Table1" ref="A1:T50" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="A1:T50" xr:uid="{15384E03-F980-462F-8FCA-1774DE719D6A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T50">
-    <sortCondition ref="G1:G50"/>
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="16" xr3:uid="{57E2852D-EB4B-4A37-A829-CF7172FA674B}" name="sampleID_closestDate" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{2263EC01-4167-4BA8-B2B3-784FB772E647}" name="specific.location"/>
-    <tableColumn id="4" xr3:uid="{0BE1BDB7-5F1E-441C-9546-1C83BBB411BA}" name="System" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{1DBDBC84-4D6B-4222-BEB2-E08DA3D1EC35}" name="general.location" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E999E72C-3B03-4576-BB96-164C6C19B056}" name="latitude_grab" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4338FDF2-3D60-4FD8-B478-4F365E2B26E3}" name="longitude_grab" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{3FFDD6C2-9101-41A0-9F1D-6E3EBC2D989E}" name="particles.L.blank.corrected" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{1C64000D-ECE2-4F84-9310-4B579E3B82D6}" name="particles.fish.blank.corrected" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{3B13F591-5C71-49F6-9317-287C9CDEEDE2}" name="particles.kg.blank.corrected" dataDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{2689D9F0-568B-4F70-9482-6553BDEC21E9}" name="sample.matrix" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{2BEE3192-3E1B-4B54-A027-D10625BA8E8B}" name="sample.matrix.specific" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{6D70A4AB-0C7B-4BE4-9E67-CD9CCBD3F2E6}" name="Sampling.apparatus" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{FDF1D1A5-2D4F-409D-8CC0-11848E166C88}" name="Min.particle.size.um" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{A797210A-50C5-41CE-A4A1-301580A38CAE}" name="Max.particle.size.um" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{51E60834-FED5-4155-B7BA-FBCBD5A2E2A8}" name="Station.Code" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{A495B33B-56C8-4669-B87A-589CE71981D3}" name="Date_string" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{4B45E421-E9A3-4D92-9988-EC84D75A0F25}" name="particle_count" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{FABB9570-C04F-476A-83F6-DBF507CA7FEC}" name="sample_volume_L" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9EED65E7-2473-4813-BD35-7A12F54F7E7C}" name="match" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{D4709BE9-75E9-4F86-84C5-A9585C2EC27B}" name="needs_fixing" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{57E2852D-EB4B-4A37-A829-CF7172FA674B}" name="sampleID_closestDate" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{2263EC01-4167-4BA8-B2B3-784FB772E647}" name="specific.location" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0BE1BDB7-5F1E-441C-9546-1C83BBB411BA}" name="System" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{1DBDBC84-4D6B-4222-BEB2-E08DA3D1EC35}" name="general.location" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E999E72C-3B03-4576-BB96-164C6C19B056}" name="latitude_grab" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{4338FDF2-3D60-4FD8-B478-4F365E2B26E3}" name="longitude_grab" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{3FFDD6C2-9101-41A0-9F1D-6E3EBC2D989E}" name="particles.L.blank.corrected" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{1C64000D-ECE2-4F84-9310-4B579E3B82D6}" name="particles.fish.blank.corrected" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{3B13F591-5C71-49F6-9317-287C9CDEEDE2}" name="particles.kg.blank.corrected" dataDxfId="25"/>
+    <tableColumn id="19" xr3:uid="{2689D9F0-568B-4F70-9482-6553BDEC21E9}" name="sample.matrix" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{2BEE3192-3E1B-4B54-A027-D10625BA8E8B}" name="sample.matrix.specific" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{6D70A4AB-0C7B-4BE4-9E67-CD9CCBD3F2E6}" name="Sampling.apparatus" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{FDF1D1A5-2D4F-409D-8CC0-11848E166C88}" name="Min.particle.size.um" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{A797210A-50C5-41CE-A4A1-301580A38CAE}" name="Max.particle.size.um" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{51E60834-FED5-4155-B7BA-FBCBD5A2E2A8}" name="Station.Code" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{A495B33B-56C8-4669-B87A-589CE71981D3}" name="Date_string" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{4B45E421-E9A3-4D92-9988-EC84D75A0F25}" name="particle_count" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{FABB9570-C04F-476A-83F6-DBF507CA7FEC}" name="sample_volume_L" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{9EED65E7-2473-4813-BD35-7A12F54F7E7C}" name="match" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{D4709BE9-75E9-4F86-84C5-A9585C2EC27B}" name="needs_fixing" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A581A94D-1EF0-45BD-AE48-2F65BD097E06}" name="Table2" displayName="Table2" ref="A1:H126" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:H126" xr:uid="{FFE99744-4F8C-4D69-9C5D-FD1138764D75}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{44A1D5DA-48AB-42A9-AA68-5844CFBBF9DE}" name="Sample.Type" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8260F17C-ACD2-4E07-80D9-30AEE628E626}" name="Polymer" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EB589D98-1662-470C-B22C-F03C77BEE8EA}" name="NorthBay" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{60CFC631-11C7-4B03-868F-2788267C16BF}" name="CentralBay" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{475A1044-2C3D-4CE9-AA3C-32D5499B5996}" name="SouthBay" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{FA7ABDB3-C116-4FC4-9E4F-8A6FA5785856}" name="LowerSouthBay" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{05463C47-1939-405C-89B9-499DBEF43021}" name="TomalesBay" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F7D1A462-6A02-4E8B-8B7A-4C7A08ECA802}" name="NMS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1725,7 +2303,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1746,31 +2324,31 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
         <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>177</v>
       </c>
       <c r="H1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" t="s">
         <v>189</v>
-      </c>
-      <c r="I1" t="s">
-        <v>190</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>178</v>
@@ -1782,16 +2360,16 @@
         <v>182</v>
       </c>
       <c r="M1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="N1" t="s">
-        <v>192</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>175</v>
@@ -1800,33 +2378,30 @@
         <v>176</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>1.9509594882729213</v>
+        <v>3.4653465350000001</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1846,43 +2421,42 @@
         <v>5000</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q2" s="16">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="R2" s="7">
-        <v>0.93799999999999994</v>
+        <v>1.01</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="T2" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>257</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G3" s="7">
-        <v>2.3251072961373387</v>
+        <v>2.734877735</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1902,43 +2476,40 @@
         <v>5000</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>195</v>
       </c>
       <c r="Q3" s="16">
-        <v>2.1669999999999998</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="R3" s="7">
-        <v>0.93200000000000005</v>
+        <v>1.036</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>185</v>
+      <c r="A4" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G4" s="7">
-        <v>3</v>
+        <v>7.4331020810000004</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1958,45 +2529,40 @@
         <v>5000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="R4" s="7">
-        <v>1</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7">
-        <v>0.65231572113502934</v>
+        <v>0.62774638999999999</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2016,43 +2582,40 @@
         <v>5000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="16">
         <v>0.66666666699999999</v>
       </c>
       <c r="R5" s="7">
-        <v>1.022</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>185</v>
+      <c r="A6" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>1.9509594882729213</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2072,43 +2635,40 @@
         <v>5000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R6" s="7">
-        <v>1.0489999999999999</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>185</v>
+      <c r="A7" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7">
-        <v>0.70957446808510649</v>
+        <v>4.9844236759999996</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2128,16 +2688,16 @@
         <v>5000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="16">
-        <v>0.66700000000000004</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="R7" s="7">
-        <v>0.94</v>
+        <v>1.07</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>201</v>
@@ -2145,26 +2705,23 @@
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>185</v>
+      <c r="A8" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>257</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="7">
-        <v>2.3832221163012393</v>
+        <v>2.3251072961373387</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2184,43 +2741,40 @@
         <v>5000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="16">
-        <v>2.5</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="R8" s="7">
-        <v>1.0489999999999999</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7">
-        <v>2.2525987525987525</v>
+        <v>1.5827793610000001</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2240,16 +2794,16 @@
         <v>5000</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="16">
-        <v>2.1669999999999998</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="R9" s="7">
-        <v>0.96199999999999997</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>201</v>
@@ -2257,26 +2811,23 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>185</v>
+      <c r="A10" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7">
-        <v>2.2022684310018903</v>
+        <v>2.703562341</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2296,43 +2847,40 @@
         <v>5000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="16">
-        <v>2.33</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="R10" s="7">
-        <v>1.0580000000000001</v>
+        <v>1.048</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>185</v>
+      <c r="A11" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7">
-        <v>0.99800399201596801</v>
+        <v>2.5510204079999999</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2352,43 +2900,42 @@
         <v>5000</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="16">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="R11" s="7">
-        <v>1.002</v>
+        <v>0.98</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="T11" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>185</v>
+      <c r="A12" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7">
-        <v>1.595744680851064</v>
+        <v>6.5789473679999997</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2408,43 +2955,40 @@
         <v>5000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q12" s="16">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="R12" s="7">
-        <v>0.94</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7">
-        <v>4.3383947939262475</v>
+        <v>18.711018710000001</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2464,16 +3008,16 @@
         <v>5000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="16">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="R13" s="7">
-        <v>0.92200000000000004</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>201</v>
@@ -2481,26 +3025,23 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>185</v>
+      <c r="A14" t="s">
+        <v>142</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7">
-        <v>0.62774638999999999</v>
+        <v>3</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2520,43 +3061,42 @@
         <v>5000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="16">
-        <v>0.66666666699999999</v>
+        <v>3</v>
       </c>
       <c r="R14" s="7">
-        <v>1.0620000000000001</v>
+        <v>1</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="T14" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7">
-        <v>0.94339622599999995</v>
+        <v>1.6404199479999999</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2576,16 +3116,16 @@
         <v>5000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q15" s="16">
-        <v>1</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="R15" s="7">
-        <v>1.06</v>
+        <v>1.016</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>201</v>
@@ -2594,25 +3134,22 @@
     </row>
     <row r="16" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7">
-        <v>3.0984996741682971</v>
+        <v>8.6715227190000004</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2632,43 +3169,40 @@
         <v>5000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="16">
-        <v>3.1666666669999999</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="R16" s="7">
-        <v>1.022</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>185</v>
+      <c r="A17" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7">
-        <v>2.6666666669999999</v>
+        <v>0.65231572113502934</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2688,16 +3222,16 @@
         <v>5000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="16">
-        <v>2.6666666669999999</v>
+        <v>0.66666666699999999</v>
       </c>
       <c r="R17" s="7">
-        <v>1</v>
+        <v>1.022</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>201</v>
@@ -2706,25 +3240,22 @@
     </row>
     <row r="18" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7">
-        <v>2.8333333330000001</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2744,16 +3275,16 @@
         <v>5000</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="16">
-        <v>2.8333333330000001</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
-        <v>1</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>201</v>
@@ -2762,25 +3293,22 @@
     </row>
     <row r="19" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7">
-        <v>3.3333333330000001</v>
+        <v>1.8115942030000001</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2800,43 +3328,40 @@
         <v>5000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="16">
-        <v>3.3333333330000001</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="R19" s="7">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="7">
-        <v>1.262626263</v>
+        <v>0.70957446808510649</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2856,43 +3381,40 @@
         <v>5000</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="16">
-        <v>1.3333333329999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="R20" s="7">
-        <v>1.056</v>
+        <v>0.94</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7">
-        <v>1.279590531</v>
+        <v>1.262626263</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2912,43 +3434,40 @@
         <v>5000</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q21" s="16">
         <v>1.3333333329999999</v>
       </c>
       <c r="R21" s="7">
-        <v>1.042</v>
+        <v>1.056</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G22" s="7">
-        <v>1.5827793610000001</v>
+        <v>3.6647546210000002</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -2968,43 +3487,40 @@
         <v>5000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="16">
-        <v>1.6666666670000001</v>
+        <v>3.8333333330000001</v>
       </c>
       <c r="R22" s="7">
-        <v>1.0529999999999999</v>
+        <v>1.046</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7">
-        <v>1.6056518950000001</v>
+        <v>3.0984996741682971</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -3024,43 +3540,40 @@
         <v>5000</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>198</v>
       </c>
       <c r="Q23" s="16">
-        <v>1.6666666670000001</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="R23" s="7">
-        <v>1.038</v>
+        <v>1.022</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G24" s="7">
-        <v>1.6404199479999999</v>
+        <v>1.279590531</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -3080,43 +3593,40 @@
         <v>5000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>198</v>
       </c>
       <c r="Q24" s="16">
-        <v>1.6666666670000001</v>
+        <v>1.3333333329999999</v>
       </c>
       <c r="R24" s="7">
-        <v>1.016</v>
+        <v>1.042</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7">
-        <v>1.8115942030000001</v>
+        <v>7.6190476189999998</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -3136,16 +3646,16 @@
         <v>5000</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="16">
-        <v>1.6666666670000001</v>
+        <v>8</v>
       </c>
       <c r="R25" s="7">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>201</v>
@@ -3154,26 +3664,22 @@
     </row>
     <row r="26" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7">
-        <f>Table1[[#This Row],[particle_count]]/Table1[[#This Row],[sample_volume_L]]</f>
-        <v>4.269449715370019</v>
+        <v>2.4122807019999999</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3193,43 +3699,40 @@
         <v>5000</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="16">
-        <v>4.5</v>
+        <v>1.8333333329999999</v>
       </c>
       <c r="R26" s="7">
-        <v>1.054</v>
+        <v>0.76</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>185</v>
+      <c r="A27" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7">
-        <v>2.4122807019999999</v>
+        <v>13.573232320000001</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3249,43 +3752,40 @@
         <v>5000</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="16">
-        <v>1.8333333329999999</v>
+        <v>14.33333333</v>
       </c>
       <c r="R27" s="7">
-        <v>0.76</v>
+        <v>1.056</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G28" s="7">
-        <v>2.5510204079999999</v>
+        <v>2.3832221163012393</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3305,45 +3805,40 @@
         <v>5000</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="16">
         <v>2.5</v>
       </c>
       <c r="R28" s="7">
-        <v>0.98</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="S28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="T28" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>185</v>
+      <c r="A29" t="s">
+        <v>138</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G29" s="7">
-        <v>2.703562341</v>
+        <v>0.94339622599999995</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3363,43 +3858,40 @@
         <v>5000</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="16">
-        <v>2.8333333330000001</v>
+        <v>1</v>
       </c>
       <c r="R29" s="7">
-        <v>1.048</v>
+        <v>1.06</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T29" s="7"/>
     </row>
     <row r="30" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7">
-        <v>2.734877735</v>
+        <v>35.703149359999998</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3419,43 +3911,40 @@
         <v>5000</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="16">
-        <v>2.8333333330000001</v>
+        <v>38.166666669999998</v>
       </c>
       <c r="R30" s="7">
-        <v>1.036</v>
+        <v>1.069</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7">
-        <v>2.764612954</v>
+        <v>2.2525987525987525</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -3475,43 +3964,40 @@
         <v>5000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="16">
-        <v>2.3333333330000001</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="R31" s="7">
-        <v>0.84399999999999997</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G32" s="7">
-        <v>3.3460803060000002</v>
+        <v>2.2022684310018903</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3531,43 +4017,40 @@
         <v>5000</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="16">
-        <v>3.5</v>
+        <v>2.33</v>
       </c>
       <c r="R32" s="7">
-        <v>1.046</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>185</v>
+      <c r="A33" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7">
-        <v>3.4653465350000001</v>
+        <v>1.6056518950000001</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3587,45 +4070,41 @@
         <v>5000</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q33" s="16">
-        <v>3.5</v>
+        <v>1.6666666670000001</v>
       </c>
       <c r="R33" s="7">
-        <v>1.01</v>
+        <v>1.038</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G34" s="7">
-        <v>3.5020694049999999</v>
+        <f>Table1[[#This Row],[particle_count]]/Table1[[#This Row],[sample_volume_L]]</f>
+        <v>4.269449715370019</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -3651,37 +4130,34 @@
         <v>198</v>
       </c>
       <c r="Q34" s="16">
-        <v>3.6666666669999999</v>
+        <v>4.5</v>
       </c>
       <c r="R34" s="7">
-        <v>1.0469999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>258</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G35" s="7">
-        <v>3.6647546210000002</v>
+        <v>3.5020694049999999</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3701,43 +4177,40 @@
         <v>5000</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="16">
-        <v>3.8333333330000001</v>
+        <v>3.6666666669999999</v>
       </c>
       <c r="R35" s="7">
-        <v>1.046</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G36" s="7">
-        <v>4.4275774830000003</v>
+        <v>18.765903309999999</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -3757,43 +4230,40 @@
         <v>5000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="16">
-        <v>4.6666666670000003</v>
+        <v>19.666666670000001</v>
       </c>
       <c r="R36" s="7">
-        <v>1.054</v>
+        <v>1.048</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>185</v>
+      <c r="A37" t="s">
+        <v>161</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G37" s="7">
-        <v>4.9844236759999996</v>
+        <v>6.2984496119999998</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3813,43 +4283,40 @@
         <v>5000</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="16">
-        <v>5.3333333329999997</v>
+        <v>6.5</v>
       </c>
       <c r="R37" s="7">
-        <v>1.07</v>
+        <v>1.032</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G38" s="7">
-        <v>5.0860719870000004</v>
+        <v>0.99800399201596801</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -3869,43 +4336,40 @@
         <v>5000</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="16">
-        <v>4.3333333329999997</v>
+        <v>1</v>
       </c>
       <c r="R38" s="7">
-        <v>0.85199999999999998</v>
+        <v>1.002</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G39" s="7">
-        <v>5.2430886560000003</v>
+        <v>6.1443932410000004</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3925,43 +4389,40 @@
         <v>5000</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39" s="16">
-        <v>5.5</v>
+        <v>5.3333333329999997</v>
       </c>
       <c r="R39" s="7">
-        <v>1.0489999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G40" s="7">
-        <v>6.1443932410000004</v>
+        <v>3.3460803060000002</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -3981,43 +4442,40 @@
         <v>5000</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q40" s="16">
-        <v>5.3333333329999997</v>
+        <v>3.5</v>
       </c>
       <c r="R40" s="7">
-        <v>0.86799999999999999</v>
+        <v>1.046</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G41" s="7">
-        <v>6.2984496119999998</v>
+        <v>1.595744680851064</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -4037,43 +4495,40 @@
         <v>5000</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>198</v>
       </c>
       <c r="Q41" s="16">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="R41" s="7">
-        <v>1.032</v>
+        <v>0.94</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>185</v>
+      <c r="A42" t="s">
+        <v>166</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G42" s="7">
-        <v>6.5789473679999997</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -4093,43 +4548,40 @@
         <v>5000</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q42" s="16">
-        <v>6</v>
+        <v>2.6666666669999999</v>
       </c>
       <c r="R42" s="7">
-        <v>0.91200000000000003</v>
+        <v>1</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>185</v>
+      <c r="A43" t="s">
+        <v>167</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G43" s="7">
-        <v>7.4331020810000004</v>
+        <v>4.3383947939262475</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -4149,43 +4601,40 @@
         <v>5000</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q43" s="16">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="R43" s="7">
-        <v>1.0089999999999999</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G44" s="7">
-        <v>7.6190476189999998</v>
+        <v>9.9313831710000002</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -4205,43 +4654,40 @@
         <v>5000</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q44" s="16">
-        <v>8</v>
+        <v>9.1666666669999994</v>
       </c>
       <c r="R44" s="7">
-        <v>1.05</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G45" s="7">
-        <v>8.6715227190000004</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -4261,43 +4707,40 @@
         <v>5000</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q45" s="16">
-        <v>8.3333333330000006</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="R45" s="7">
-        <v>0.96099999999999997</v>
+        <v>1</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G46" s="7">
-        <v>9.9313831710000002</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -4317,43 +4760,40 @@
         <v>5000</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q46" s="16">
-        <v>9.1666666669999994</v>
+        <v>2.8333333330000001</v>
       </c>
       <c r="R46" s="7">
-        <v>0.92300000000000004</v>
+        <v>1</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>185</v>
+      <c r="A47" t="s">
+        <v>171</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G47" s="7">
-        <v>13.573232320000001</v>
+        <v>5.0860719870000004</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -4373,43 +4813,40 @@
         <v>5000</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q47" s="16">
-        <v>14.33333333</v>
+        <v>4.3333333329999997</v>
       </c>
       <c r="R47" s="7">
-        <v>1.056</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" ht="16.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G48" s="7">
-        <v>18.711018710000001</v>
+        <v>5.2430886560000003</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -4429,43 +4866,40 @@
         <v>5000</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q48" s="16">
-        <v>18</v>
+        <v>5.5</v>
       </c>
       <c r="R48" s="7">
-        <v>0.96199999999999997</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="G49" s="7">
-        <v>18.765903309999999</v>
+        <v>2.764612954</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -4485,43 +4919,40 @@
         <v>5000</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q49" s="16">
-        <v>19.666666670000001</v>
+        <v>2.3333333330000001</v>
       </c>
       <c r="R49" s="7">
-        <v>1.048</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="G50" s="7">
-        <v>35.703149359999998</v>
+        <v>4.4275774830000003</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -4541,19 +4972,19 @@
         <v>5000</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q50" s="16">
-        <v>38.166666669999998</v>
+        <v>4.6666666670000003</v>
       </c>
       <c r="R50" s="7">
-        <v>1.069</v>
+        <v>1.054</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T50" s="7"/>
     </row>
@@ -4567,4 +4998,3308 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFAB193-2469-4740-B7EC-D7D3EFCD0C1C}">
+  <dimension ref="A1:H126"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="58.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="19">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="58.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>4</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="87.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="19">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="101.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="19">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19">
+        <v>15</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="87.05" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="19">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19">
+        <v>32</v>
+      </c>
+      <c r="F11" s="19">
+        <v>6</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H13" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="19">
+        <v>11</v>
+      </c>
+      <c r="D15" s="19">
+        <v>25</v>
+      </c>
+      <c r="E15" s="19">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19">
+        <v>26</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="19">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>21</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="19">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19">
+        <v>11</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19">
+        <v>16</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>14</v>
+      </c>
+      <c r="E21" s="19">
+        <v>8</v>
+      </c>
+      <c r="F21" s="19">
+        <v>4</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="19">
+        <v>2</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="19">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="19">
+        <v>9</v>
+      </c>
+      <c r="D29" s="19">
+        <v>20</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="19">
+        <v>4</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="19">
+        <v>47</v>
+      </c>
+      <c r="D30" s="19">
+        <v>20</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="19">
+        <v>48</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="19">
+        <v>10</v>
+      </c>
+      <c r="D35" s="19">
+        <v>10</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="19">
+        <v>8</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="19">
+        <v>7</v>
+      </c>
+      <c r="D36" s="19">
+        <v>12</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="19">
+        <v>15</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="22">
+        <v>1</v>
+      </c>
+      <c r="D39" s="22">
+        <v>1</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="19">
+        <v>14</v>
+      </c>
+      <c r="D40" s="19">
+        <v>22</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="19">
+        <v>11</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="19">
+        <v>5</v>
+      </c>
+      <c r="D43" s="19">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="19">
+        <v>3</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="19">
+        <v>3</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="19">
+        <v>0</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="19">
+        <v>1</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+      <c r="E52" s="19">
+        <v>0</v>
+      </c>
+      <c r="F52" s="19">
+        <v>3</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="19">
+        <v>2</v>
+      </c>
+      <c r="D53" s="19">
+        <v>2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>3</v>
+      </c>
+      <c r="F53" s="19">
+        <v>2</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="19">
+        <v>2</v>
+      </c>
+      <c r="D54" s="19">
+        <v>4</v>
+      </c>
+      <c r="E54" s="19">
+        <v>6</v>
+      </c>
+      <c r="F54" s="19">
+        <v>3</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="19">
+        <v>11</v>
+      </c>
+      <c r="D55" s="19">
+        <v>18</v>
+      </c>
+      <c r="E55" s="19">
+        <v>15</v>
+      </c>
+      <c r="F55" s="19">
+        <v>10</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="19">
+        <v>19</v>
+      </c>
+      <c r="D56" s="19">
+        <v>4</v>
+      </c>
+      <c r="E56" s="19">
+        <v>6</v>
+      </c>
+      <c r="F56" s="19">
+        <v>5</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="19">
+        <v>6</v>
+      </c>
+      <c r="D57" s="19">
+        <v>1</v>
+      </c>
+      <c r="E57" s="19">
+        <v>4</v>
+      </c>
+      <c r="F57" s="19">
+        <v>2</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19">
+        <v>0</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="19">
+        <v>2</v>
+      </c>
+      <c r="D59" s="19">
+        <v>6</v>
+      </c>
+      <c r="E59" s="19">
+        <v>1</v>
+      </c>
+      <c r="F59" s="19">
+        <v>2</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="19">
+        <v>23</v>
+      </c>
+      <c r="D60" s="19">
+        <v>30</v>
+      </c>
+      <c r="E60" s="19">
+        <v>32</v>
+      </c>
+      <c r="F60" s="19">
+        <v>20</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="22">
+        <v>11</v>
+      </c>
+      <c r="D61" s="22">
+        <v>5</v>
+      </c>
+      <c r="E61" s="22">
+        <v>3</v>
+      </c>
+      <c r="F61" s="22">
+        <v>2</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="19">
+        <v>0</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0</v>
+      </c>
+      <c r="E62" s="19">
+        <v>0</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="19">
+        <v>2</v>
+      </c>
+      <c r="E63" s="19">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19">
+        <v>2</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="19">
+        <v>2</v>
+      </c>
+      <c r="D64" s="19">
+        <v>4</v>
+      </c>
+      <c r="E64" s="19">
+        <v>1</v>
+      </c>
+      <c r="F64" s="19">
+        <v>0</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="19">
+        <v>0</v>
+      </c>
+      <c r="D65" s="19">
+        <v>8</v>
+      </c>
+      <c r="E65" s="19">
+        <v>12</v>
+      </c>
+      <c r="F65" s="19">
+        <v>12</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="19">
+        <v>0</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0</v>
+      </c>
+      <c r="E66" s="19">
+        <v>1</v>
+      </c>
+      <c r="F66" s="19">
+        <v>0</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="19">
+        <v>6</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="19">
+        <v>0</v>
+      </c>
+      <c r="D68" s="19">
+        <v>8</v>
+      </c>
+      <c r="E68" s="19">
+        <v>8</v>
+      </c>
+      <c r="F68" s="19">
+        <v>17</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="19">
+        <v>5</v>
+      </c>
+      <c r="D69" s="19">
+        <v>0</v>
+      </c>
+      <c r="E69" s="19">
+        <v>1</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="19">
+        <v>2</v>
+      </c>
+      <c r="D70" s="19">
+        <v>5</v>
+      </c>
+      <c r="E70" s="19">
+        <v>4</v>
+      </c>
+      <c r="F70" s="19">
+        <v>10</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="19">
+        <v>0</v>
+      </c>
+      <c r="D71" s="19">
+        <v>1</v>
+      </c>
+      <c r="E71" s="19">
+        <v>0</v>
+      </c>
+      <c r="F71" s="19">
+        <v>0</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="19">
+        <v>0</v>
+      </c>
+      <c r="D72" s="19">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19">
+        <v>0</v>
+      </c>
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="19">
+        <v>3</v>
+      </c>
+      <c r="D73" s="19">
+        <v>2</v>
+      </c>
+      <c r="E73" s="19">
+        <v>1</v>
+      </c>
+      <c r="F73" s="19">
+        <v>0</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="19">
+        <v>0</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0</v>
+      </c>
+      <c r="E74" s="19">
+        <v>2</v>
+      </c>
+      <c r="F74" s="19">
+        <v>12</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="19">
+        <v>0</v>
+      </c>
+      <c r="D75" s="19">
+        <v>0</v>
+      </c>
+      <c r="E75" s="19">
+        <v>0</v>
+      </c>
+      <c r="F75" s="19">
+        <v>0</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="19">
+        <v>0</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="19">
+        <v>0</v>
+      </c>
+      <c r="F76" s="19">
+        <v>0</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="19">
+        <v>0</v>
+      </c>
+      <c r="D77" s="19">
+        <v>1</v>
+      </c>
+      <c r="E77" s="19">
+        <v>0</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0</v>
+      </c>
+      <c r="G77" s="19">
+        <v>0</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="19">
+        <v>3</v>
+      </c>
+      <c r="D78" s="19">
+        <v>4</v>
+      </c>
+      <c r="E78" s="19">
+        <v>3</v>
+      </c>
+      <c r="F78" s="19">
+        <v>4</v>
+      </c>
+      <c r="G78" s="19">
+        <v>4</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="19">
+        <v>0</v>
+      </c>
+      <c r="D79" s="19">
+        <v>1</v>
+      </c>
+      <c r="E79" s="19">
+        <v>2</v>
+      </c>
+      <c r="F79" s="19">
+        <v>1</v>
+      </c>
+      <c r="G79" s="19">
+        <v>2</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="19">
+        <v>13</v>
+      </c>
+      <c r="D80" s="19">
+        <v>4</v>
+      </c>
+      <c r="E80" s="19">
+        <v>7</v>
+      </c>
+      <c r="F80" s="19">
+        <v>5</v>
+      </c>
+      <c r="G80" s="19">
+        <v>4</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="19">
+        <v>7</v>
+      </c>
+      <c r="D81" s="19">
+        <v>1</v>
+      </c>
+      <c r="E81" s="19">
+        <v>5</v>
+      </c>
+      <c r="F81" s="19">
+        <v>4</v>
+      </c>
+      <c r="G81" s="19">
+        <v>2</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="19">
+        <v>3</v>
+      </c>
+      <c r="D82" s="19">
+        <v>2</v>
+      </c>
+      <c r="E82" s="19">
+        <v>1</v>
+      </c>
+      <c r="F82" s="19">
+        <v>1</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="22">
+        <v>0</v>
+      </c>
+      <c r="D83" s="22">
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0</v>
+      </c>
+      <c r="D84" s="19">
+        <v>3</v>
+      </c>
+      <c r="E84" s="19">
+        <v>3</v>
+      </c>
+      <c r="F84" s="19">
+        <v>1</v>
+      </c>
+      <c r="G84" s="19">
+        <v>10</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="19">
+        <v>30</v>
+      </c>
+      <c r="D85" s="19">
+        <v>38</v>
+      </c>
+      <c r="E85" s="19">
+        <v>27</v>
+      </c>
+      <c r="F85" s="19">
+        <v>29</v>
+      </c>
+      <c r="G85" s="19">
+        <v>42</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="19">
+        <v>13</v>
+      </c>
+      <c r="D86" s="19">
+        <v>12</v>
+      </c>
+      <c r="E86" s="19">
+        <v>24</v>
+      </c>
+      <c r="F86" s="19">
+        <v>14</v>
+      </c>
+      <c r="G86" s="19">
+        <v>25</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="19">
+        <v>0</v>
+      </c>
+      <c r="D87" s="19">
+        <v>2</v>
+      </c>
+      <c r="E87" s="19">
+        <v>1</v>
+      </c>
+      <c r="F87" s="19">
+        <v>1</v>
+      </c>
+      <c r="G87" s="19">
+        <v>0</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="19">
+        <v>3</v>
+      </c>
+      <c r="D88" s="19">
+        <v>1</v>
+      </c>
+      <c r="E88" s="19">
+        <v>0</v>
+      </c>
+      <c r="F88" s="19">
+        <v>0</v>
+      </c>
+      <c r="G88" s="19">
+        <v>0</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="19">
+        <v>3</v>
+      </c>
+      <c r="D89" s="19">
+        <v>0</v>
+      </c>
+      <c r="E89" s="19">
+        <v>1</v>
+      </c>
+      <c r="F89" s="19">
+        <v>4</v>
+      </c>
+      <c r="G89" s="19">
+        <v>0</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="19">
+        <v>3</v>
+      </c>
+      <c r="D90" s="19">
+        <v>12</v>
+      </c>
+      <c r="E90" s="19">
+        <v>3</v>
+      </c>
+      <c r="F90" s="19">
+        <v>7</v>
+      </c>
+      <c r="G90" s="19">
+        <v>2</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="19">
+        <v>0</v>
+      </c>
+      <c r="D91" s="19">
+        <v>1</v>
+      </c>
+      <c r="E91" s="19">
+        <v>0</v>
+      </c>
+      <c r="F91" s="19">
+        <v>0</v>
+      </c>
+      <c r="G91" s="19">
+        <v>0</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="19">
+        <v>0</v>
+      </c>
+      <c r="D92" s="19">
+        <v>1</v>
+      </c>
+      <c r="E92" s="19">
+        <v>0</v>
+      </c>
+      <c r="F92" s="19">
+        <v>0</v>
+      </c>
+      <c r="G92" s="19">
+        <v>0</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="19">
+        <v>7</v>
+      </c>
+      <c r="D93" s="19">
+        <v>7</v>
+      </c>
+      <c r="E93" s="19">
+        <v>4</v>
+      </c>
+      <c r="F93" s="19">
+        <v>6</v>
+      </c>
+      <c r="G93" s="19">
+        <v>6</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="19">
+        <v>0</v>
+      </c>
+      <c r="D94" s="19">
+        <v>0</v>
+      </c>
+      <c r="E94" s="19">
+        <v>0</v>
+      </c>
+      <c r="F94" s="19">
+        <v>0</v>
+      </c>
+      <c r="G94" s="19">
+        <v>0</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="19">
+        <v>10</v>
+      </c>
+      <c r="D95" s="19">
+        <v>5</v>
+      </c>
+      <c r="E95" s="19">
+        <v>3</v>
+      </c>
+      <c r="F95" s="19">
+        <v>3</v>
+      </c>
+      <c r="G95" s="19">
+        <v>2</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="19">
+        <v>3</v>
+      </c>
+      <c r="D96" s="19">
+        <v>6</v>
+      </c>
+      <c r="E96" s="19">
+        <v>13</v>
+      </c>
+      <c r="F96" s="19">
+        <v>18</v>
+      </c>
+      <c r="G96" s="19">
+        <v>0</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="19">
+        <v>0</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0</v>
+      </c>
+      <c r="E97" s="19">
+        <v>0</v>
+      </c>
+      <c r="F97" s="19">
+        <v>0</v>
+      </c>
+      <c r="G97" s="19">
+        <v>0</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="19">
+        <v>0</v>
+      </c>
+      <c r="D98" s="19">
+        <v>2</v>
+      </c>
+      <c r="E98" s="19">
+        <v>2</v>
+      </c>
+      <c r="F98" s="19">
+        <v>2</v>
+      </c>
+      <c r="G98" s="19">
+        <v>0</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="19">
+        <v>0</v>
+      </c>
+      <c r="E99" s="19">
+        <v>3</v>
+      </c>
+      <c r="F99" s="19">
+        <v>0</v>
+      </c>
+      <c r="G99" s="19">
+        <v>2</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="19">
+        <v>0</v>
+      </c>
+      <c r="D100" s="19">
+        <v>0</v>
+      </c>
+      <c r="E100" s="19">
+        <v>0</v>
+      </c>
+      <c r="F100" s="19">
+        <v>0</v>
+      </c>
+      <c r="G100" s="19">
+        <v>0</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="19">
+        <v>0</v>
+      </c>
+      <c r="D101" s="19">
+        <v>0</v>
+      </c>
+      <c r="E101" s="19">
+        <v>0</v>
+      </c>
+      <c r="F101" s="19">
+        <v>0</v>
+      </c>
+      <c r="G101" s="19">
+        <v>0</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="19">
+        <v>0</v>
+      </c>
+      <c r="E102" s="19">
+        <v>0</v>
+      </c>
+      <c r="F102" s="19">
+        <v>0</v>
+      </c>
+      <c r="G102" s="19">
+        <v>0</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D103" s="19">
+        <v>3</v>
+      </c>
+      <c r="E103" s="19">
+        <v>4</v>
+      </c>
+      <c r="F103" s="19">
+        <v>3</v>
+      </c>
+      <c r="G103" s="19">
+        <v>4</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="22">
+        <v>4</v>
+      </c>
+      <c r="E104" s="22">
+        <v>3</v>
+      </c>
+      <c r="F104" s="22">
+        <v>3</v>
+      </c>
+      <c r="G104" s="22">
+        <v>6</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105" s="19">
+        <v>52</v>
+      </c>
+      <c r="E105" s="19">
+        <v>50</v>
+      </c>
+      <c r="F105" s="19">
+        <v>60</v>
+      </c>
+      <c r="G105" s="19">
+        <v>64</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="19">
+        <v>4</v>
+      </c>
+      <c r="E106" s="19">
+        <v>0</v>
+      </c>
+      <c r="F106" s="19">
+        <v>0</v>
+      </c>
+      <c r="G106" s="19">
+        <v>2</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="19">
+        <v>2</v>
+      </c>
+      <c r="E107" s="19">
+        <v>1</v>
+      </c>
+      <c r="F107" s="19">
+        <v>2</v>
+      </c>
+      <c r="G107" s="19">
+        <v>0</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="19">
+        <v>0</v>
+      </c>
+      <c r="E108" s="19">
+        <v>0</v>
+      </c>
+      <c r="F108" s="19">
+        <v>0</v>
+      </c>
+      <c r="G108" s="19">
+        <v>0</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" s="19">
+        <v>1</v>
+      </c>
+      <c r="E109" s="19">
+        <v>0</v>
+      </c>
+      <c r="F109" s="19">
+        <v>1</v>
+      </c>
+      <c r="G109" s="19">
+        <v>0</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" s="19">
+        <v>13</v>
+      </c>
+      <c r="E110" s="19">
+        <v>17</v>
+      </c>
+      <c r="F110" s="19">
+        <v>9</v>
+      </c>
+      <c r="G110" s="19">
+        <v>6</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" s="19">
+        <v>10</v>
+      </c>
+      <c r="E111" s="19">
+        <v>7</v>
+      </c>
+      <c r="F111" s="19">
+        <v>11</v>
+      </c>
+      <c r="G111" s="19">
+        <v>10</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="19">
+        <v>0</v>
+      </c>
+      <c r="E112" s="19">
+        <v>0</v>
+      </c>
+      <c r="F112" s="19">
+        <v>0</v>
+      </c>
+      <c r="G112" s="19">
+        <v>0</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.85" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" s="19">
+        <v>0</v>
+      </c>
+      <c r="E113" s="19">
+        <v>0</v>
+      </c>
+      <c r="F113" s="19">
+        <v>0</v>
+      </c>
+      <c r="G113" s="19">
+        <v>0</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="19">
+        <v>2</v>
+      </c>
+      <c r="E114" s="19">
+        <v>2</v>
+      </c>
+      <c r="F114" s="19">
+        <v>2</v>
+      </c>
+      <c r="G114" s="19">
+        <v>0</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" s="19">
+        <v>1</v>
+      </c>
+      <c r="E115" s="19">
+        <v>0</v>
+      </c>
+      <c r="F115" s="19">
+        <v>2</v>
+      </c>
+      <c r="G115" s="19">
+        <v>4</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D116" s="19">
+        <v>0</v>
+      </c>
+      <c r="E116" s="19">
+        <v>0</v>
+      </c>
+      <c r="F116" s="19">
+        <v>0</v>
+      </c>
+      <c r="G116" s="19">
+        <v>0</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="19">
+        <v>0</v>
+      </c>
+      <c r="E117" s="19">
+        <v>0</v>
+      </c>
+      <c r="F117" s="19">
+        <v>0</v>
+      </c>
+      <c r="G117" s="19">
+        <v>0</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" s="19">
+        <v>6</v>
+      </c>
+      <c r="E118" s="19">
+        <v>14</v>
+      </c>
+      <c r="F118" s="19">
+        <v>6</v>
+      </c>
+      <c r="G118" s="19">
+        <v>3</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D119" s="19">
+        <v>0</v>
+      </c>
+      <c r="E119" s="19">
+        <v>0</v>
+      </c>
+      <c r="F119" s="19">
+        <v>0</v>
+      </c>
+      <c r="G119" s="19">
+        <v>0</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" s="19">
+        <v>3</v>
+      </c>
+      <c r="E120" s="19">
+        <v>1</v>
+      </c>
+      <c r="F120" s="19">
+        <v>0</v>
+      </c>
+      <c r="G120" s="19">
+        <v>0</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="19">
+        <v>0</v>
+      </c>
+      <c r="E121" s="19">
+        <v>0</v>
+      </c>
+      <c r="F121" s="19">
+        <v>0</v>
+      </c>
+      <c r="G121" s="19">
+        <v>0</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="19">
+        <v>0</v>
+      </c>
+      <c r="E122" s="19">
+        <v>0</v>
+      </c>
+      <c r="F122" s="19">
+        <v>0</v>
+      </c>
+      <c r="G122" s="19">
+        <v>0</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" s="19">
+        <v>0</v>
+      </c>
+      <c r="E123" s="19">
+        <v>0</v>
+      </c>
+      <c r="F123" s="19">
+        <v>0</v>
+      </c>
+      <c r="G123" s="19">
+        <v>0</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="22">
+        <v>0</v>
+      </c>
+      <c r="E124" s="22">
+        <v>0</v>
+      </c>
+      <c r="F124" s="22">
+        <v>0</v>
+      </c>
+      <c r="G124" s="22">
+        <v>0</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125" s="19">
+        <v>0</v>
+      </c>
+      <c r="E125" s="19">
+        <v>0</v>
+      </c>
+      <c r="F125" s="19">
+        <v>0</v>
+      </c>
+      <c r="G125" s="19">
+        <v>0</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" s="28">
+        <v>0</v>
+      </c>
+      <c r="E126" s="28">
+        <v>0</v>
+      </c>
+      <c r="F126" s="28">
+        <v>0</v>
+      </c>
+      <c r="G126" s="28">
+        <v>0</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>